--- a/Análises Esportivas/ciclos de Netuno/15 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/15 - editável_ciclos.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C8" s="28" t="n">
         <f aca="false">'Ciclo 1'!N5</f>
-        <v>3</v>
+        <v>0.17</v>
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
@@ -1395,23 +1395,23 @@
       </c>
       <c r="C9" s="24" t="n">
         <f aca="false">C8</f>
-        <v>3</v>
+        <v>0.17</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>3</v>
+        <v>0.17</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>6</v>
+        <v>3.17</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>9</v>
+        <v>6.17</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>0</v>
+        <v>-2.83</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'Ciclo 1'!Q9</f>
-        <v>0</v>
+        <v>-2.83</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
@@ -1596,7 +1596,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1686,14 +1686,16 @@
         <f aca="false">D3*J3</f>
         <v>0.15</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.16</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.15</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!C4</f>
@@ -1711,7 +1713,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G395)+Q2</f>
-        <v>3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1722,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -1728,20 +1730,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.15405</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.1535625</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>-2.99</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>-0.94620253164557</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>-3.1435625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!C$5)</f>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,7 +1773,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -1777,7 +1781,7 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.0080803125</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
@@ -1806,7 +1810,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>3</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -1814,7 +1818,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>-0.943333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1864,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>-2.83</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -1909,7 +1913,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>-0.943333333333333</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -1917,7 +1921,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I395)</f>
-        <v>-0.15</v>
+        <v>-3.1335625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,7 +2019,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 2'!Q2)</f>
-        <v>0</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
